--- a/medicine/Mort/Nécropole_nationale_de_Saint-Mandrier-sur-Mer/Nécropole_nationale_de_Saint-Mandrier-sur-Mer.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Saint-Mandrier-sur-Mer/Nécropole_nationale_de_Saint-Mandrier-sur-Mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nécropole nationale de Saint-Mandrier-sur-Mer est un cimetière militaire franco-italien, situé dans la commune de Saint-Mandrier-sur-Mer, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,88 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole est située sur les hauteurs de la Presqu'île de Saint-Mandrier, à proximité du site militaire situé sur la presqu'île.
-Elle fût créée en 1670 par Colbert, alors ministre de Louis XIV[1]. Cette nécropole est reprise en charge par le ministère des Anciens Combattants en décembre 1948, et est alors érigé en nécropole nationale.
-Entrée
-À l'entrée de la nécropole, située juste en face de l'entrée de la base militaire, on peut voir un mausolée en forme de pyramide datant de 1810[2]. Haut de 8 m, il est cerné par deux sphinx et abrite le tombeau du vice amiral Louis-René-Madeleine de Latouche-Tréville, commandant en chef des Forces Navales de Méditerranée, décédé a bord de son navire le Bucentaure en rade de Toulon le 19 août 1804[3].
+Elle fût créée en 1670 par Colbert, alors ministre de Louis XIV. Cette nécropole est reprise en charge par le ministère des Anciens Combattants en décembre 1948, et est alors érigé en nécropole nationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'entrée de la nécropole, située juste en face de l'entrée de la base militaire, on peut voir un mausolée en forme de pyramide datant de 1810. Haut de 8 m, il est cerné par deux sphinx et abrite le tombeau du vice amiral Louis-René-Madeleine de Latouche-Tréville, commandant en chef des Forces Navales de Méditerranée, décédé a bord de son navire le Bucentaure en rade de Toulon le 19 août 1804.
 Ce mausolée est entourée de deux drapeaux, définissant les deux parties du cimetière : italien à droite et français à gauche.
-Partie française
-La partie réservée à la France est celle de gauche. Elle comprend 1 081 tombes de soldats décédés durant la Première Guerre mondiale :
-1 024 tombes pour les soldats français de l'armée d'Orient[1],
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Partie française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie réservée à la France est celle de gauche. Elle comprend 1 081 tombes de soldats décédés durant la Première Guerre mondiale :
+1 024 tombes pour les soldats français de l'armée d'Orient,
 22 tombes pour les soldats serbes,
 18 tombes pour les soldats grecs,
 16 tombes pour les soldats russes,
@@ -528,13 +612,49 @@
 			Allées de tombes françaises
 			Tombe du Lieutenant Adrien Leclerc, mort le 12 mai 1916
 			Panneaux annonçant la présence de tombes étrangères
-Un ossuaire contient également les ossements de 777 soldats français[4].
+Un ossuaire contient également les ossements de 777 soldats français.
 De plus, 2 monuments ont été érigés :
 Derrière la pyramide, un monument rend hommage aux « Officiers du Service de Santé de la Marine, du Personnel soignant et aux Religieuses décédées à l'Hôpital Maritime de Saint-Mandrier » entre 1670 et 1935,
-Un tombeau rend hommage à Marie-Nicolas Ravier, capitaine de l'armée d'Orient mort le 8 octobre 1917[3].
+Un tombeau rend hommage à Marie-Nicolas Ravier, capitaine de l'armée d'Orient mort le 8 octobre 1917.
 			Monument derrière la pyramide
 			Plaque commémorative
-Partie italienne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Partie italienne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La partie réservée à l'Italie est celle de droite. Elle comprend les tombes de 975 italiens, sous forme de columbarium, dont les corps n'ont pas été réclamés, qui ont péri dans le sud de la France durant la Seconde Guerre mondiale. Cet espace a été cédée au gouvernement italien en 1961.
 			Columbarium italien
 			Exemple de 2 tombes italiennes
@@ -544,33 +664,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Saint-Mandrier-sur-Mer</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dans la culture générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Nécropole nationale de Saint-Mandrier-sur-Mer est considérée comme l'un des plus beaux cimetières en France[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nécropole nationale de Saint-Mandrier-sur-Mer est considérée comme l'un des plus beaux cimetières en France.
 </t>
         </is>
       </c>
